--- a/public/stats.xlsx
+++ b/public/stats.xlsx
@@ -5907,7 +5907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5921,8 +5921,16 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5935,8 +5943,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5944,16 +5958,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12971,15 +13004,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2076450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13273,17 +13306,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" style="2" customWidth="1"/>
     <col min="5" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" spans="1:10" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -13317,7 +13350,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
